--- a/src/main/resources/templates/excel.xlsx
+++ b/src/main/resources/templates/excel.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Kích thước</t>
   </si>
   <si>
-    <t xml:space="preserve">Số lượng đèn</t>
+    <t xml:space="preserve">Hệ thống chiếu sáng</t>
   </si>
   <si>
     <t xml:space="preserve">Mô tả</t>
@@ -332,15 +332,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>665280</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
+      <xdr:colOff>442080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -353,8 +353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34551360" y="0"/>
-          <a:ext cx="4053240" cy="842400"/>
+          <a:off x="36405720" y="0"/>
+          <a:ext cx="4072320" cy="842040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,32 +376,32 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.66801619433198"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.6801619433198"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3684210526316"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7651821862348"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="20.9311740890688"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.2874493927125"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.1578947368421"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.4008097165992"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.0445344129555"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="23.4858299595142"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="24.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="38.1862348178138"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.7935222672065"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4690,7 +4690,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M:M A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4716,7 +4716,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M:M A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
